--- a/Opencart_Testszenarien.xlsx
+++ b/Opencart_Testszenarien.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python-Selenium\Software Testing_QA Atomation\Manual Software Testing\Meine eigene Arbeit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python-Selenium\QA-Automation-Learning\MySecondProject_Opencart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DBC528-495B-46D5-8190-04A2C7F1D0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F6C62E-6363-4B59-BF92-75F2FD9EE4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{752F1A39-AED7-4C8A-B338-26AA6DC20E1A}"/>
   </bookViews>
@@ -945,7 +945,7 @@
         <v>32</v>
       </c>
       <c r="E13" s="12">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="10" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">

--- a/Opencart_Testszenarien.xlsx
+++ b/Opencart_Testszenarien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python-Selenium\QA-Automation-Learning\MySecondProject_Opencart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F6C62E-6363-4B59-BF92-75F2FD9EE4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C257442-75E3-4D93-9CD2-5AD7F7D5A3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{752F1A39-AED7-4C8A-B338-26AA6DC20E1A}"/>
   </bookViews>
@@ -823,7 +823,7 @@
   <dimension ref="A2:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -976,7 +976,9 @@
       <c r="D15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="12">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:5" s="10" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="12" t="s">

--- a/Opencart_Testszenarien.xlsx
+++ b/Opencart_Testszenarien.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python-Selenium\QA-Automation-Learning\MySecondProject_Opencart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C257442-75E3-4D93-9CD2-5AD7F7D5A3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9633D62-9CD6-4EA0-93E1-641FC06CACE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{752F1A39-AED7-4C8A-B338-26AA6DC20E1A}"/>
   </bookViews>
@@ -823,7 +823,7 @@
   <dimension ref="A2:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -961,7 +961,9 @@
       <c r="D14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="12">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:5" s="10" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="12" t="s">
